--- a/data/source/ts_subset.xlsx
+++ b/data/source/ts_subset.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_gitHub\CTDasRDF\data\source\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ts_subset.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -453,7 +458,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -494,6 +499,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -822,16 +835,16 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="C19" sqref="C19:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="36.1640625" customWidth="1"/>
+    <col min="5" max="5" width="36.125" customWidth="1"/>
     <col min="6" max="6" width="54.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -863,7 +876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -883,7 +896,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -903,7 +916,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -923,7 +936,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -943,7 +956,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -963,7 +976,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -983,7 +996,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1009,7 +1022,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1029,7 +1042,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1049,7 +1062,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1069,7 +1082,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1089,7 +1102,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1109,7 +1122,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1135,7 +1148,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1155,7 +1168,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1175,7 +1188,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="45">
+    <row r="17" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1195,7 +1208,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1215,7 +1228,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="45">
+    <row r="19" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1235,7 +1248,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="45">
+    <row r="20" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1255,7 +1268,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="45">
+    <row r="21" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1275,7 +1288,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="30">
+    <row r="22" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1295,7 +1308,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1315,7 +1328,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1335,7 +1348,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1355,7 +1368,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1375,7 +1388,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1395,7 +1408,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1415,7 +1428,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="45">
+    <row r="29" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1435,7 +1448,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1461,7 +1474,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1481,7 +1494,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1501,7 +1514,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1521,7 +1534,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="30">
+    <row r="34" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -1541,7 +1554,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1567,7 +1580,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="45">
+    <row r="36" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -1587,7 +1600,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -1613,7 +1626,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -1639,7 +1652,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -1662,7 +1675,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -1682,7 +1695,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -1702,7 +1715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -1728,7 +1741,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -1751,7 +1764,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -1774,7 +1787,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -1794,7 +1807,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -1820,7 +1833,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -1846,7 +1859,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -1872,7 +1885,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>10</v>
       </c>
